--- a/data/auxiliary/TDS_Baseline_MPWSP.xlsx
+++ b/data/auxiliary/TDS_Baseline_MPWSP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianpg\Box Sync\MCWD SkyTEM Project\Wells\MPSWP Wells\MWs_water_quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianpg/Documents/ProjectsLocal/Marina_Borehole_Geophysics/data/auxiliary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D38AF-0115-104A-B937-E450D0564FF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26445" windowHeight="11430"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +66,6 @@
     <t>MW-5S</t>
   </si>
   <si>
-    <t>TOTAL DISS. SOLIDS</t>
-  </si>
-  <si>
     <t>MW-6S</t>
   </si>
   <si>
@@ -111,12 +109,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>TDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,439 +478,603 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AR44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+    </row>
+    <row r="2" spans="1:44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B3" s="8">
         <v>42048</v>
-      </c>
-      <c r="D2" s="8">
-        <v>42103</v>
-      </c>
-      <c r="E2" s="8">
-        <v>42049</v>
-      </c>
-      <c r="F2" s="8">
-        <v>42103</v>
-      </c>
-      <c r="G2" s="8">
-        <v>42049</v>
-      </c>
-      <c r="H2" s="8">
-        <v>42103</v>
-      </c>
-      <c r="I2" s="8">
-        <v>42060</v>
-      </c>
-      <c r="J2" s="8">
-        <v>42104</v>
-      </c>
-      <c r="K2" s="8">
-        <v>42059</v>
-      </c>
-      <c r="L2" s="8">
-        <v>42104</v>
-      </c>
-      <c r="M2" s="8">
-        <v>42056</v>
-      </c>
-      <c r="N2" s="8">
-        <v>42104</v>
-      </c>
-      <c r="O2" s="8">
-        <v>42070</v>
-      </c>
-      <c r="P2" s="8">
-        <v>42096</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>42069</v>
-      </c>
-      <c r="R2" s="8">
-        <v>42096</v>
-      </c>
-      <c r="S2" s="8">
-        <v>42054</v>
-      </c>
-      <c r="T2" s="8">
-        <v>42096</v>
-      </c>
-      <c r="U2" s="8">
-        <v>42073</v>
-      </c>
-      <c r="V2" s="8">
-        <v>42096</v>
-      </c>
-      <c r="W2" s="8">
-        <v>42066</v>
-      </c>
-      <c r="X2" s="8">
-        <v>42096</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>42052</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>42096</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>42099</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>42098</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>42096</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>42219</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>42218</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>42225</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>42152</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>42178</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>42151</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>42178</v>
-      </c>
-      <c r="AK2" s="9">
-        <v>42145</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>42178</v>
-      </c>
-      <c r="AM2" s="8">
-        <v>42185</v>
-      </c>
-      <c r="AN2" s="8">
-        <v>42213</v>
-      </c>
-      <c r="AO2" s="8">
-        <v>42183</v>
-      </c>
-      <c r="AP2" s="8">
-        <v>42213</v>
-      </c>
-      <c r="AQ2" s="8">
-        <v>42180</v>
-      </c>
-      <c r="AR2" s="8">
-        <v>42213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>26600</v>
       </c>
-      <c r="D3" s="4">
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>42103</v>
+      </c>
+      <c r="C4" s="4">
         <v>27500</v>
       </c>
-      <c r="E3" s="4">
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>42049</v>
+      </c>
+      <c r="C5" s="4">
         <v>30900</v>
       </c>
-      <c r="F3" s="4">
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>42103</v>
+      </c>
+      <c r="C6" s="4">
         <v>28300</v>
       </c>
-      <c r="G3" s="4">
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>42049</v>
+      </c>
+      <c r="C7" s="4">
         <v>29100</v>
       </c>
-      <c r="H3" s="4">
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8">
+        <v>42103</v>
+      </c>
+      <c r="C8" s="4">
         <v>28700</v>
       </c>
-      <c r="I3" s="5">
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>42060</v>
+      </c>
+      <c r="C9" s="5">
         <v>23400</v>
       </c>
-      <c r="J3" s="5">
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>42104</v>
+      </c>
+      <c r="C10" s="5">
         <v>23300</v>
       </c>
-      <c r="K3" s="5">
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>42059</v>
+      </c>
+      <c r="C11" s="5">
         <v>28500</v>
       </c>
-      <c r="L3" s="5">
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>42104</v>
+      </c>
+      <c r="C12" s="5">
         <v>28300</v>
       </c>
-      <c r="M3" s="5">
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8">
+        <v>42056</v>
+      </c>
+      <c r="C13" s="5">
         <v>32600</v>
       </c>
-      <c r="N3" s="5">
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8">
+        <v>42104</v>
+      </c>
+      <c r="C14" s="5">
         <v>28600</v>
       </c>
-      <c r="O3" s="5">
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8">
+        <v>42070</v>
+      </c>
+      <c r="C15" s="5">
         <v>11900</v>
       </c>
-      <c r="P3" s="5">
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8">
+        <v>42096</v>
+      </c>
+      <c r="C16" s="5">
         <v>12800</v>
       </c>
-      <c r="Q3" s="5">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8">
+        <v>42069</v>
+      </c>
+      <c r="C17" s="5">
         <v>17900</v>
       </c>
-      <c r="R3" s="5">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8">
+        <v>42096</v>
+      </c>
+      <c r="C18" s="5">
         <v>17500</v>
       </c>
-      <c r="S3" s="5">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8">
+        <v>42054</v>
+      </c>
+      <c r="C19" s="5">
         <v>27500</v>
       </c>
-      <c r="T3" s="5">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8">
+        <v>42096</v>
+      </c>
+      <c r="C20" s="5">
         <v>27600</v>
       </c>
-      <c r="U3" s="5">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="8">
+        <v>42073</v>
+      </c>
+      <c r="C21" s="5">
         <v>1166</v>
       </c>
-      <c r="V3" s="5">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="8">
+        <v>42096</v>
+      </c>
+      <c r="C22" s="5">
         <v>1117</v>
       </c>
-      <c r="W3" s="6">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8">
+        <v>42066</v>
+      </c>
+      <c r="C23" s="6">
         <v>663</v>
       </c>
-      <c r="X3" s="6">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8">
+        <v>42096</v>
+      </c>
+      <c r="C24" s="6">
         <v>454</v>
       </c>
-      <c r="Y3" s="5">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8">
+        <v>42052</v>
+      </c>
+      <c r="C25" s="5">
         <v>2616</v>
       </c>
-      <c r="Z3" s="5">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="8">
+        <v>42096</v>
+      </c>
+      <c r="C26" s="5">
         <v>2437</v>
       </c>
-      <c r="AA3" s="7">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="9">
+        <v>42099</v>
+      </c>
+      <c r="C27" s="7">
         <v>608</v>
       </c>
-      <c r="AB3" s="7">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="9">
+        <v>42098</v>
+      </c>
+      <c r="C28" s="7">
         <v>966</v>
       </c>
-      <c r="AC3" s="7">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="9">
+        <v>42096</v>
+      </c>
+      <c r="C29" s="7">
         <v>1840</v>
       </c>
-      <c r="AD3" s="5">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="8">
+        <v>42219</v>
+      </c>
+      <c r="C30" s="5">
         <v>1200</v>
       </c>
-      <c r="AE3" s="5">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="8">
+        <v>42218</v>
+      </c>
+      <c r="C31" s="5">
         <v>3832</v>
       </c>
-      <c r="AF3" s="5">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="8">
+        <v>42225</v>
+      </c>
+      <c r="C32" s="5">
         <v>26700</v>
       </c>
-      <c r="AG3" s="7">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="9">
+        <v>42152</v>
+      </c>
+      <c r="C33" s="7">
         <v>1260</v>
       </c>
-      <c r="AH3" s="7">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="9">
+        <v>42178</v>
+      </c>
+      <c r="C34" s="7">
         <v>1214</v>
       </c>
-      <c r="AI3" s="7">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="9">
+        <v>42151</v>
+      </c>
+      <c r="C35" s="7">
         <v>24000</v>
       </c>
-      <c r="AJ3" s="7">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="9">
+        <v>42178</v>
+      </c>
+      <c r="C36" s="7">
         <v>20500</v>
       </c>
-      <c r="AK3" s="7">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="9">
+        <v>42145</v>
+      </c>
+      <c r="C37" s="7">
         <v>583</v>
       </c>
-      <c r="AL3" s="7">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="9">
+        <v>42178</v>
+      </c>
+      <c r="C38" s="7">
         <v>7100</v>
       </c>
-      <c r="AM3" s="5">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="8">
+        <v>42185</v>
+      </c>
+      <c r="C39" s="5">
         <v>3204</v>
       </c>
-      <c r="AN3" s="5">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="8">
+        <v>42213</v>
+      </c>
+      <c r="C40" s="5">
         <v>2997</v>
       </c>
-      <c r="AO3" s="5">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="8">
+        <v>42183</v>
+      </c>
+      <c r="C41" s="5">
         <v>29000</v>
       </c>
-      <c r="AP3" s="5">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="8">
+        <v>42213</v>
+      </c>
+      <c r="C42" s="5">
         <v>30600</v>
       </c>
-      <c r="AQ3" s="6">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="8">
+        <v>42180</v>
+      </c>
+      <c r="C43" s="6">
         <v>366</v>
       </c>
-      <c r="AR3" s="6">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="8">
+        <v>42213</v>
+      </c>
+      <c r="C44" s="6">
         <v>377</v>
       </c>
     </row>

--- a/data/auxiliary/TDS_Baseline_MPWSP.xlsx
+++ b/data/auxiliary/TDS_Baseline_MPWSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianpg/Documents/ProjectsLocal/Marina_Borehole_Geophysics/data/auxiliary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73726F8-E95F-D34C-83BE-2DB6CA517329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D649E582-BEB0-C84E-8EA6-5A1E7A446F29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="660" windowWidth="24760" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="25">
   <si>
     <t>MW-1D</t>
   </si>
@@ -63,22 +63,66 @@
     <t>WellScreen</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>PR-1</t>
+  </si>
+  <si>
+    <t>ML-1</t>
+  </si>
+  <si>
+    <t>ML-2</t>
+  </si>
+  <si>
+    <t>ML-3</t>
+  </si>
+  <si>
+    <t>ML-4</t>
+  </si>
+  <si>
+    <t>ML-6</t>
+  </si>
+  <si>
+    <t>MDW-1</t>
+  </si>
+  <si>
+    <t>CX-B1</t>
+  </si>
+  <si>
+    <t>CX-B2</t>
+  </si>
+  <si>
+    <t>CX-B4</t>
+  </si>
+  <si>
+    <t>Shallow</t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>Med</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -93,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -116,11 +160,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -139,6 +222,30 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,39 +527,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR43"/>
+  <dimension ref="A1:AQ74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" customFormat="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -504,14 +610,13 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="7">
         <v>42048</v>
@@ -520,12 +625,12 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="7">
         <v>42103</v>
@@ -534,12 +639,12 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="7">
         <v>42049</v>
@@ -548,12 +653,12 @@
         <v>30900</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="7">
         <v>42103</v>
@@ -562,12 +667,12 @@
         <v>28300</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>42049</v>
@@ -576,12 +681,12 @@
         <v>29100</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="7">
         <v>42103</v>
@@ -590,12 +695,12 @@
         <v>28700</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="7">
         <v>42060</v>
@@ -604,12 +709,12 @@
         <v>23400</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="7">
         <v>42104</v>
@@ -618,12 +723,12 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>42059</v>
@@ -632,12 +737,12 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="7">
         <v>42104</v>
@@ -646,12 +751,12 @@
         <v>28300</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>42056</v>
@@ -660,12 +765,12 @@
         <v>32600</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="7">
         <v>42104</v>
@@ -674,12 +779,12 @@
         <v>28600</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="7">
         <v>42070</v>
@@ -688,12 +793,12 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="7">
         <v>42096</v>
@@ -702,12 +807,12 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="7">
         <v>42069</v>
@@ -716,12 +821,12 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C17" s="7">
         <v>42096</v>
@@ -730,12 +835,12 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>42054</v>
@@ -744,12 +849,12 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C19" s="7">
         <v>42096</v>
@@ -758,12 +863,12 @@
         <v>27600</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C20" s="7">
         <v>42073</v>
@@ -772,12 +877,12 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="7">
         <v>42096</v>
@@ -786,12 +891,12 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>42066</v>
@@ -800,12 +905,12 @@
         <v>663</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="7">
         <v>42096</v>
@@ -814,12 +919,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="7">
         <v>42052</v>
@@ -828,12 +933,12 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C25" s="7">
         <v>42096</v>
@@ -842,12 +947,12 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" t="s">
-        <v>12</v>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C26" s="8">
         <v>42099</v>
@@ -856,12 +961,12 @@
         <v>608</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="8">
         <v>42098</v>
@@ -870,12 +975,12 @@
         <v>966</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C28" s="8">
         <v>42096</v>
@@ -884,12 +989,12 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
-        <v>12</v>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C29" s="7">
         <v>42219</v>
@@ -898,12 +1003,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>42218</v>
@@ -912,12 +1017,12 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C31" s="7">
         <v>42225</v>
@@ -926,12 +1031,12 @@
         <v>26700</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B32" t="s">
-        <v>12</v>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C32" s="8">
         <v>42152</v>
@@ -940,12 +1045,12 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="s">
-        <v>12</v>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C33" s="8">
         <v>42178</v>
@@ -954,12 +1059,12 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C34" s="8">
         <v>42151</v>
@@ -968,12 +1073,12 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
+      <c r="B35" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C35" s="8">
         <v>42178</v>
@@ -982,12 +1087,12 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36" t="s">
-        <v>14</v>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C36" s="8">
         <v>42145</v>
@@ -996,12 +1101,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37" t="s">
-        <v>14</v>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C37" s="8">
         <v>42178</v>
@@ -1010,12 +1115,12 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B38" t="s">
-        <v>12</v>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C38" s="7">
         <v>42185</v>
@@ -1024,12 +1129,12 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
-        <v>12</v>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C39" s="7">
         <v>42213</v>
@@ -1038,12 +1143,12 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
-        <v>13</v>
+      <c r="B40" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C40" s="7">
         <v>42183</v>
@@ -1052,12 +1157,12 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" t="s">
-        <v>13</v>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C41" s="7">
         <v>42213</v>
@@ -1066,12 +1171,12 @@
         <v>30600</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
-        <v>14</v>
+      <c r="B42" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C42" s="7">
         <v>42180</v>
@@ -1080,12 +1185,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="16" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
-        <v>14</v>
+      <c r="B43" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C43" s="7">
         <v>42213</v>
@@ -1093,6 +1198,502 @@
       <c r="D43" s="5">
         <v>377</v>
       </c>
+    </row>
+    <row r="44" spans="1:7" ht="16" thickBot="1">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="10">
+        <v>1</v>
+      </c>
+      <c r="C44" s="12">
+        <v>41541</v>
+      </c>
+      <c r="D44" s="11">
+        <v>630</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="16" thickBot="1">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2</v>
+      </c>
+      <c r="C45" s="12">
+        <v>41542</v>
+      </c>
+      <c r="D45" s="11">
+        <v>34000</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" ht="16" thickBot="1">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="10">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12">
+        <v>41552</v>
+      </c>
+      <c r="D46" s="11">
+        <v>22000</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="16" thickBot="1">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2</v>
+      </c>
+      <c r="C47" s="12">
+        <v>41554</v>
+      </c>
+      <c r="D47" s="11">
+        <v>3200</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" ht="16" thickBot="1">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="10">
+        <v>1</v>
+      </c>
+      <c r="C48" s="12">
+        <v>41625</v>
+      </c>
+      <c r="D48" s="11">
+        <v>19000</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="16" thickBot="1">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="10">
+        <v>2</v>
+      </c>
+      <c r="C49" s="12">
+        <v>41627</v>
+      </c>
+      <c r="D49" s="11">
+        <v>8100</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="16" thickBot="1">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="10">
+        <v>1</v>
+      </c>
+      <c r="C50" s="12">
+        <v>41650</v>
+      </c>
+      <c r="D50" s="11">
+        <v>7400</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" ht="16" thickBot="1">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="10">
+        <v>2</v>
+      </c>
+      <c r="C51" s="12">
+        <v>41652</v>
+      </c>
+      <c r="D51" s="11">
+        <v>4200</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="16" thickBot="1">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="10">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12">
+        <v>41613</v>
+      </c>
+      <c r="D52" s="11">
+        <v>21000</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="16" thickBot="1">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="10">
+        <v>2</v>
+      </c>
+      <c r="C53" s="12">
+        <v>41614</v>
+      </c>
+      <c r="D53" s="11">
+        <v>8600</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="16" thickBot="1">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1</v>
+      </c>
+      <c r="C54" s="12">
+        <v>41600</v>
+      </c>
+      <c r="D54" s="11">
+        <v>34000</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="16" thickBot="1">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="10">
+        <v>2</v>
+      </c>
+      <c r="C55" s="12">
+        <v>41601</v>
+      </c>
+      <c r="D55" s="11">
+        <v>28000</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" ht="16" thickBot="1">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="10">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12">
+        <v>41760</v>
+      </c>
+      <c r="D56" s="11">
+        <v>31000</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="16" thickBot="1">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="10">
+        <v>2</v>
+      </c>
+      <c r="C57" s="12">
+        <v>41766</v>
+      </c>
+      <c r="D57" s="11">
+        <v>30200</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="16" thickBot="1">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="10">
+        <v>3</v>
+      </c>
+      <c r="C58" s="12">
+        <v>41767</v>
+      </c>
+      <c r="D58" s="11">
+        <v>26600</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" ht="16" thickBot="1">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="10">
+        <v>4</v>
+      </c>
+      <c r="C59" s="12">
+        <v>41769</v>
+      </c>
+      <c r="D59" s="11">
+        <v>21900</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" ht="16" thickBot="1">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1</v>
+      </c>
+      <c r="C60" s="14">
+        <v>41688</v>
+      </c>
+      <c r="D60" s="15">
+        <v>25200</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="1:7" ht="16" thickBot="1">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="13">
+        <v>2</v>
+      </c>
+      <c r="C61" s="14">
+        <v>41689</v>
+      </c>
+      <c r="D61" s="15">
+        <v>14600</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="1:7" ht="16" thickBot="1">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="13">
+        <v>3</v>
+      </c>
+      <c r="C62" s="14">
+        <v>41691</v>
+      </c>
+      <c r="D62" s="15">
+        <v>35600</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" spans="1:7" ht="16" thickBot="1">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="13">
+        <v>4</v>
+      </c>
+      <c r="C63" s="14">
+        <v>41692</v>
+      </c>
+      <c r="D63" s="15">
+        <v>26500</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="16"/>
+    </row>
+    <row r="64" spans="1:7" ht="16" thickBot="1">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="13">
+        <v>5</v>
+      </c>
+      <c r="C64" s="14">
+        <v>41693</v>
+      </c>
+      <c r="D64" s="15">
+        <v>27400</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="16"/>
+    </row>
+    <row r="65" spans="1:7" ht="16" thickBot="1">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="13">
+        <v>6</v>
+      </c>
+      <c r="C65" s="14">
+        <v>41695</v>
+      </c>
+      <c r="D65" s="15">
+        <v>24800</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="16"/>
+    </row>
+    <row r="66" spans="1:7" ht="16" thickBot="1">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="13">
+        <v>1</v>
+      </c>
+      <c r="C66" s="14">
+        <v>41706</v>
+      </c>
+      <c r="D66" s="15">
+        <v>26500</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:7" ht="16" thickBot="1">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="13">
+        <v>2</v>
+      </c>
+      <c r="C67" s="14">
+        <v>41708</v>
+      </c>
+      <c r="D67" s="15">
+        <v>16200</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:7" ht="16" thickBot="1">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="13">
+        <v>3</v>
+      </c>
+      <c r="C68" s="14">
+        <v>41709</v>
+      </c>
+      <c r="D68" s="15">
+        <v>26800</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:7" ht="16" thickBot="1">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="13">
+        <v>4</v>
+      </c>
+      <c r="C69" s="14">
+        <v>41710</v>
+      </c>
+      <c r="D69" s="15">
+        <v>26700</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="1:7" ht="16" thickBot="1">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="13">
+        <v>1</v>
+      </c>
+      <c r="C70" s="14">
+        <v>41734</v>
+      </c>
+      <c r="D70" s="15">
+        <v>29800</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" ht="16" thickBot="1">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="13">
+        <v>2</v>
+      </c>
+      <c r="C71" s="14">
+        <v>41735</v>
+      </c>
+      <c r="D71" s="15">
+        <v>27200</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" ht="16" thickBot="1">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="13">
+        <v>3</v>
+      </c>
+      <c r="C72" s="14">
+        <v>41737</v>
+      </c>
+      <c r="D72" s="15">
+        <v>20500</v>
+      </c>
+      <c r="F72" s="15"/>
+      <c r="G72" s="16"/>
+    </row>
+    <row r="73" spans="1:7" ht="16" thickBot="1">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="13">
+        <v>4</v>
+      </c>
+      <c r="C73" s="14">
+        <v>41738</v>
+      </c>
+      <c r="D73" s="15">
+        <v>24000</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="1:7" ht="16" thickBot="1">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="13">
+        <v>5</v>
+      </c>
+      <c r="C74" s="14">
+        <v>41739</v>
+      </c>
+      <c r="D74" s="15">
+        <v>4815</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
